--- a/biology/Botanique/Onobrychis_cornuta/Onobrychis_cornuta.xlsx
+++ b/biology/Botanique/Onobrychis_cornuta/Onobrychis_cornuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sainfoin cornu
 Onobrychis cornuta, le Sainfoin cornu, est une espèce de plantes herbacées de la famille des Fabaceae, sous-famille des Faboideae, originaire du Proche-Orient, d'Asie centrale et du sous-continent indien. 
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Sainfoin cornu est un sous-arbrisseau épineux dont le port est arrondi : il forme des coussins circulaires ou elliptiques dans lesquels les branches s'enchevêtrent[2].
-L'espèce fleurit entre mai et juillet[3]. Les tiges fertiles portent des gousses pubescentes dénuées d'épines et mesurant 6  à   8 mm de long. Les fleurs, d'une taille comprise entre 10  et   15 mm, sont d'une couleur rose-pourpre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Sainfoin cornu est un sous-arbrisseau épineux dont le port est arrondi : il forme des coussins circulaires ou elliptiques dans lesquels les branches s'enchevêtrent.
+L'espèce fleurit entre mai et juillet. Les tiges fertiles portent des gousses pubescentes dénuées d'épines et mesurant 6  à   8 mm de long. Les fleurs, d'une taille comprise entre 10  et   15 mm, sont d'une couleur rose-pourpre.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Sainfoin cornu est une espèce caractéristique de la flore de la région irano-touranienne. L'espèce est fortement alticole et se retrouve dans une zone allant des monts Zagros en Iran à la région transcaucasienne, en passant par les formations montagneuses qui jouxtent la Méditerranée orientale (Anatolie, Liban)[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Sainfoin cornu est une espèce caractéristique de la flore de la région irano-touranienne. L'espèce est fortement alticole et se retrouve dans une zone allant des monts Zagros en Iran à la région transcaucasienne, en passant par les formations montagneuses qui jouxtent la Méditerranée orientale (Anatolie, Liban),.
 </t>
         </is>
       </c>
@@ -575,51 +591,124 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Initialement nommée Hedysarum cornutum en 1763 par le naturaliste suédois Carl von Linné, c'est en 1814 que le botaniste français Nicaise Augustin Desvaux donna à l'espèce son nom actuel[5]. Le nom vulgaire de l'espèce en français est Sainfoin cornu[6].
-Synonymes
-Selon Catalogue of Life                                   (7 août 2018)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement nommée Hedysarum cornutum en 1763 par le naturaliste suédois Carl von Linné, c'est en 1814 que le botaniste français Nicaise Augustin Desvaux donna à l'espèce son nom actuel. Le nom vulgaire de l'espèce en français est Sainfoin cornu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Onobrychis_cornuta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Onobrychis_cornuta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 août 2018) :
 Dendrobrychis cornuta (L.) Galushko
 Hedysarum cornutumL., 1763 (basionyme)
 Onobrychis korschinskyi Vassilcz.
 Onobrychis korshinskii Vassilcz.
 Onobrychis korshinskyi Vassilcz.
-Onobrychis pulvillus Trautv.
-Liste des sous-espèces
-Selon Catalogue of Life                                   (7 août 2018)[7] :
+Onobrychis pulvillus Trautv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Onobrychis_cornuta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Onobrychis_cornuta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 août 2018) :
 Onobrychis cornuta subsp. cornuta
 Onobrychis cornuta subsp. leptacantha</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Onobrychis_cornuta</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Onobrychis_cornuta</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Sainfoin cornu peut servir de source de fourrage aux troupeaux de bovins et d'ovins, même s'il présente une faible palatabilité, du fait de ses feuilles de petite taille et de ses nombreuses épines[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Sainfoin cornu peut servir de source de fourrage aux troupeaux de bovins et d'ovins, même s'il présente une faible palatabilité, du fait de ses feuilles de petite taille et de ses nombreuses épines.
 </t>
         </is>
       </c>
